--- a/Data/final_tables/column_keys/supplementary_file_1_BARD1_SGE_final_table_columnkeys.xlsx
+++ b/Data/final_tables/column_keys/supplementary_file_1_BARD1_SGE_final_table_columnkeys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/BARD1_draft_figs/supp_figs/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/final_tables/column_keys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA6747D-5340-6643-A4FB-37BE349D6672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D4BCE1-4260-6046-9608-F7300D791040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1020" yWindow="-19640" windowWidth="28800" windowHeight="16140" xr2:uid="{BF4B49DB-9683-1849-9012-8FB29919FB02}"/>
+    <workbookView xWindow="-10560" yWindow="-28800" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{BF4B49DB-9683-1849-9012-8FB29919FB02}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="8" r:id="rId1"/>
@@ -472,9 +472,6 @@
     </r>
   </si>
   <si>
-    <t>one of “PASS”, “WARN”, “FAIL”, indicating whether the variant passes all QC metrics. "PASS" indicates variant passes all current QC metrics. "WARN" indicates variant is in same codon as required edit introduced during SGE target design. "FAIL" not currently in use</t>
-  </si>
-  <si>
     <t>var_type</t>
   </si>
   <si>
@@ -938,6 +935,9 @@
   </si>
   <si>
     <t>Either TRUE or FALSE for if the variant was used in the training set for MutPred2</t>
+  </si>
+  <si>
+    <t>one of “PASS”, “WARN”, “FAIL”, indicating whether the variant passes all QC metrics. "PASS" indicates variant passes all current QC metrics. "WARN" and "FAIL" not currently in use</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4A2D08-15C9-BE40-B029-8C14E5FF934D}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -1343,82 +1343,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
         <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
         <v>159</v>
-      </c>
-      <c r="B3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
         <v>175</v>
-      </c>
-      <c r="B4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
         <v>161</v>
-      </c>
-      <c r="B5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
         <v>163</v>
-      </c>
-      <c r="B6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
         <v>165</v>
-      </c>
-      <c r="B7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
         <v>167</v>
-      </c>
-      <c r="B8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
         <v>169</v>
-      </c>
-      <c r="B9" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
         <v>181</v>
-      </c>
-      <c r="B10" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1444,79 +1444,79 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="s">
         <v>191</v>
-      </c>
-      <c r="B10" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1528,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F306EB-5164-DB47-BAC8-5F93E3CF6AE1}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1694,15 +1694,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1718,7 +1718,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1726,143 +1726,143 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1930,58 +1930,58 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1989,7 +1989,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2012,23 +2012,23 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
         <v>177</v>
-      </c>
-      <c r="B2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
         <v>179</v>
-      </c>
-      <c r="B3" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2051,31 +2051,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2111,10 +2111,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2137,15 +2137,15 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2169,28 +2169,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>36</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2224,23 +2224,23 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2256,15 +2256,15 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2308,7 +2308,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -2316,15 +2316,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
         <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>34</v>
@@ -2340,18 +2340,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2372,178 +2372,178 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
